--- a/spliced/falling/2023-03-25_17-59-26/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.280028343200684</v>
+        <v>-3.012916564941406</v>
       </c>
       <c r="D2" t="n">
-        <v>7.839587211608887</v>
+        <v>8.089370727539062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0374422371387481</v>
+        <v>-0.1633265316486358</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02312735825777049</v>
+        <v>0.03629761248826986</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06875288158655167</v>
+        <v>0.01907121278345579</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.001032362207770397</v>
+        <v>0.05546045627444995</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.331558704376221</v>
+        <v>-3.395848751068115</v>
       </c>
       <c r="D3" t="n">
-        <v>7.833842277526855</v>
+        <v>8.023316383361816</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1311583817005157</v>
+        <v>0.0382503271102905</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1697350136935719</v>
+        <v>0.05165476366877556</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2189157873392111</v>
+        <v>-0.0003787364251911958</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.04578435219824339</v>
+        <v>0.03377473920583711</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.715910911560059</v>
+        <v>-3.384797096252441</v>
       </c>
       <c r="D4" t="n">
-        <v>7.601772308349609</v>
+        <v>7.934267520904541</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8390151262283325</v>
+        <v>0.07479587197303771</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2920058012008669</v>
+        <v>0.02702467799186697</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2727635514736176</v>
+        <v>-0.02729956846684218</v>
       </c>
       <c r="H4" t="n">
-        <v>0.126033713221551</v>
+        <v>-0.006963863894343374</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.635088920593262</v>
+        <v>-3.632324695587158</v>
       </c>
       <c r="D5" t="n">
-        <v>7.303267478942871</v>
+        <v>7.965863227844238</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.838643550872803</v>
+        <v>0.0220168232917785</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2655186891555784</v>
+        <v>0.02345722466707222</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2190562760829923</v>
+        <v>-0.01078177168965329</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6186354464292545</v>
+        <v>-0.01979203335940831</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.690509796142578</v>
+        <v>-3.280028343200684</v>
       </c>
       <c r="D6" t="n">
-        <v>6.705544471740723</v>
+        <v>7.839587211608887</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.344899177551269</v>
+        <v>0.0374422371387481</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2926044583320622</v>
+        <v>0.02312735825777049</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3912286460399645</v>
+        <v>-0.06875288158655167</v>
       </c>
       <c r="H6" t="n">
-        <v>0.472412636876103</v>
+        <v>-0.001032362207770397</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.218070983886719</v>
+        <v>-3.331558704376221</v>
       </c>
       <c r="D7" t="n">
-        <v>5.676623344421387</v>
+        <v>7.833842277526855</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.678865909576416</v>
+        <v>-0.1311583817005157</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02654820919036799</v>
+        <v>-0.1697350136935719</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1870408368110673</v>
+        <v>-0.2189157873392111</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.7209736722707767</v>
+        <v>-0.04578435219824339</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.941818714141846</v>
+        <v>-3.715910911560059</v>
       </c>
       <c r="D8" t="n">
-        <v>3.218802928924561</v>
+        <v>7.601772308349609</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.337108850479126</v>
+        <v>-0.8390151262283325</v>
       </c>
       <c r="F8" t="n">
-        <v>1.565036740303041</v>
+        <v>-0.2920058012008669</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7936239337921156</v>
+        <v>-0.2727635514736176</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.525304698944093</v>
+        <v>0.126033713221551</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-7.670186996459961</v>
+        <v>-3.635088920593262</v>
       </c>
       <c r="D9" t="n">
-        <v>2.646533727645874</v>
+        <v>7.303267478942871</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.358609437942505</v>
+        <v>-1.838643550872803</v>
       </c>
       <c r="F9" t="n">
-        <v>1.211272468566887</v>
+        <v>-0.2655186891555784</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4785640525817794</v>
+        <v>-0.2190562760829923</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.630715656280514</v>
+        <v>0.6186354464292545</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.754570007324219</v>
+        <v>-3.690509796142578</v>
       </c>
       <c r="D10" t="n">
-        <v>5.042309761047363</v>
+        <v>6.705544471740723</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.384928703308105</v>
+        <v>-2.344899177551269</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08948565244675255</v>
+        <v>-0.2926044583320622</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.522057590484637</v>
+        <v>-0.3912286460399645</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.111322727203364</v>
+        <v>0.472412636876103</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-7.390841484069824</v>
+        <v>-4.218070983886719</v>
       </c>
       <c r="D11" t="n">
-        <v>6.343035697937012</v>
+        <v>5.676623344421387</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.130713939666748</v>
+        <v>-2.678865909576416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5279402807354899</v>
+        <v>-0.02654820919036799</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.442680406570422</v>
+        <v>0.1870408368110673</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08100073337555302</v>
+        <v>-0.7209736722707767</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.7764301300048828</v>
+        <v>-5.941818714141846</v>
       </c>
       <c r="D12" t="n">
-        <v>4.676393508911133</v>
+        <v>3.218802928924561</v>
       </c>
       <c r="E12" t="n">
-        <v>5.587088108062744</v>
+        <v>-3.337108850479126</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09629679918289313</v>
+        <v>1.565036740303041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4833410131931261</v>
+        <v>-0.7936239337921156</v>
       </c>
       <c r="H12" t="n">
-        <v>0.534000061750409</v>
+        <v>-2.525304698944093</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2559165954589844</v>
+        <v>-7.670186996459961</v>
       </c>
       <c r="D13" t="n">
-        <v>4.696257591247559</v>
+        <v>2.646533727645874</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5933610200881958</v>
+        <v>-3.358609437942505</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2217929553985592</v>
+        <v>1.211272468566887</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1976026952266694</v>
+        <v>-0.4785640525817794</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.07598552823066797</v>
+        <v>-2.630715656280514</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.17343902587891</v>
+        <v>-6.754570007324219</v>
       </c>
       <c r="D14" t="n">
-        <v>6.087247848510742</v>
+        <v>5.042309761047363</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7045816779136658</v>
+        <v>-5.384928703308105</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01921781659126266</v>
+        <v>0.08948565244675255</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1601200026273725</v>
+        <v>-0.522057590484637</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3930673503875731</v>
+        <v>-1.111322727203364</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.419233322143555</v>
+        <v>-7.390841484069824</v>
       </c>
       <c r="D15" t="n">
-        <v>7.200580596923828</v>
+        <v>6.343035697937012</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1463413685560226</v>
+        <v>-4.130713939666748</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1233581319451331</v>
+        <v>0.5279402807354899</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0740124344825745</v>
+        <v>-1.442680406570422</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1553430366516109</v>
+        <v>0.08100073337555302</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.139339923858643</v>
+        <v>-0.7764301300048828</v>
       </c>
       <c r="D16" t="n">
-        <v>7.70880126953125</v>
+        <v>4.676393508911133</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3070659637451172</v>
+        <v>5.587088108062744</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02880229651927913</v>
+        <v>-0.09629679918289313</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08823948577046314</v>
+        <v>0.4833410131931261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1134376771748063</v>
+        <v>0.534000061750409</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.675087451934815</v>
+        <v>0.2559165954589844</v>
       </c>
       <c r="D17" t="n">
-        <v>7.276998043060303</v>
+        <v>4.696257591247559</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0094249583780765</v>
+        <v>0.5933610200881958</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04516126751899735</v>
+        <v>-0.2217929553985592</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04690834142267682</v>
+        <v>-0.1976026952266694</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04470311729237415</v>
+        <v>-0.07598552823066797</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.29545783996582</v>
+        <v>15.17343902587891</v>
       </c>
       <c r="D18" t="n">
-        <v>7.679934978485107</v>
+        <v>6.087247848510742</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2107167989015579</v>
+        <v>-0.7045816779136658</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08489194503053989</v>
+        <v>-0.01921781659126266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003543018288910211</v>
+        <v>-0.1601200026273725</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01284038770012586</v>
+        <v>-0.3930673503875731</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.693088531494141</v>
+        <v>3.419233322143555</v>
       </c>
       <c r="D19" t="n">
-        <v>6.483500003814697</v>
+        <v>7.200580596923828</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4083580672740936</v>
+        <v>0.1463413685560226</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.006982189631089474</v>
+        <v>0.1233581319451331</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.03079982601106174</v>
+        <v>0.0740124344825745</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09092118501663188</v>
+        <v>-0.1553430366516109</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.303851127624512</v>
+        <v>2.139339923858643</v>
       </c>
       <c r="D20" t="n">
-        <v>7.912090301513672</v>
+        <v>7.70880126953125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.230869710445404</v>
+        <v>0.3070659637451172</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0009346238337456938</v>
+        <v>0.02880229651927913</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08996823592111455</v>
+        <v>0.08823948577046314</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.006743952780961876</v>
+        <v>0.1134376771748063</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.314035892486572</v>
+        <v>3.675087451934815</v>
       </c>
       <c r="D21" t="n">
-        <v>6.959295749664307</v>
+        <v>7.276998043060303</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2122190594673156</v>
+        <v>-0.0094249583780765</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0059559359215199</v>
+        <v>-0.04516126751899735</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0061086523346602</v>
+        <v>-0.04690834142267682</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0476474873721599</v>
+        <v>0.04470311729237415</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-26/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.012916564941406</v>
+        <v>-3.58582592010498</v>
       </c>
       <c r="D2" t="n">
-        <v>8.089370727539062</v>
+        <v>8.237812042236328</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1633265316486358</v>
+        <v>0.2284512519836425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03629761248826986</v>
+        <v>-0.0005742134153842587</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01907121278345579</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05546045627444995</v>
+        <v>0.04580267548561091</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.395848751068115</v>
+        <v>-3.345468521118164</v>
       </c>
       <c r="D3" t="n">
-        <v>8.023316383361816</v>
+        <v>8.276437759399414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0382503271102905</v>
+        <v>-0.0355764925479888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05165476366877556</v>
+        <v>-0.0293826170265674</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0003787364251911958</v>
+        <v>0.0331699833273887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03377473920583711</v>
+        <v>0.01545489076524965</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.384797096252441</v>
+        <v>-3.182104587554932</v>
       </c>
       <c r="D4" t="n">
-        <v>7.934267520904541</v>
+        <v>8.366311073303223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07479587197303771</v>
+        <v>0.2440185844898224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02702467799186697</v>
+        <v>-0.02163684628903856</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02729956846684218</v>
+        <v>0.01164309203624722</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.006963863894343374</v>
+        <v>-0.01903456177562478</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.632324695587158</v>
+        <v>-3.532341480255127</v>
       </c>
       <c r="D5" t="n">
-        <v>7.965863227844238</v>
+        <v>8.214254379272461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0220168232917785</v>
+        <v>0.022090196609497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02345722466707222</v>
+        <v>-0.00761748962104312</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01078177168965329</v>
+        <v>-0.02296242564916602</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01979203335940831</v>
+        <v>-0.00737925238907336</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.280028343200684</v>
+        <v>-3.395359516143799</v>
       </c>
       <c r="D6" t="n">
-        <v>7.839587211608887</v>
+        <v>8.257164001464844</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0374422371387481</v>
+        <v>0.0318913161754608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02312735825777049</v>
+        <v>-0.03987117595970628</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06875288158655167</v>
+        <v>-0.01981036089360703</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001032362207770397</v>
+        <v>0.01966986127197736</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.331558704376221</v>
+        <v>-3.210868835449219</v>
       </c>
       <c r="D7" t="n">
-        <v>7.833842277526855</v>
+        <v>8.186161994934082</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1311583817005157</v>
+        <v>-0.0299544632434844</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1697350136935719</v>
+        <v>-0.04132503550499657</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2189157873392111</v>
+        <v>-0.01673159938305617</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04578435219824339</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.715910911560059</v>
+        <v>-3.197915077209473</v>
       </c>
       <c r="D8" t="n">
-        <v>7.601772308349609</v>
+        <v>8.212710380554199</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8390151262283325</v>
+        <v>0.0095521211624145</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2920058012008669</v>
+        <v>-0.01340849157422786</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2727635514736176</v>
+        <v>-0.03075706511735912</v>
       </c>
       <c r="H8" t="n">
-        <v>0.126033713221551</v>
+        <v>-0.009834930114448132</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.635088920593262</v>
+        <v>-3.255885124206543</v>
       </c>
       <c r="D9" t="n">
-        <v>7.303267478942871</v>
+        <v>8.21357250213623</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.838643550872803</v>
+        <v>-0.070087194442749</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2655186891555784</v>
+        <v>-0.03994447708129877</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2190562760829923</v>
+        <v>-0.01221119597554203</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6186354464292545</v>
+        <v>-0.04150218397378917</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.690509796142578</v>
+        <v>-3.168186187744141</v>
       </c>
       <c r="D10" t="n">
-        <v>6.705544471740723</v>
+        <v>8.229218482971191</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.344899177551269</v>
+        <v>-0.0939638018608093</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2926044583320622</v>
+        <v>-0.03637702405452719</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3912286460399645</v>
+        <v>0.01701259657740584</v>
       </c>
       <c r="H10" t="n">
-        <v>0.472412636876103</v>
+        <v>-0.03676186949014657</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.218070983886719</v>
+        <v>-3.290424346923828</v>
       </c>
       <c r="D11" t="n">
-        <v>5.676623344421387</v>
+        <v>8.159111976623535</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.678865909576416</v>
+        <v>-0.1956053972244262</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02654820919036799</v>
+        <v>-0.03740938737988467</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1870408368110673</v>
+        <v>0.01381166309118263</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7209736722707767</v>
+        <v>-0.03841120541095729</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-5.941818714141846</v>
+        <v>-3.586246490478516</v>
       </c>
       <c r="D12" t="n">
-        <v>3.218802928924561</v>
+        <v>8.05996036529541</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.337108850479126</v>
+        <v>-0.0569053888320922</v>
       </c>
       <c r="F12" t="n">
-        <v>1.565036740303041</v>
+        <v>-0.04191757388412946</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7936239337921156</v>
+        <v>0.01410487815737716</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.525304698944093</v>
+        <v>-0.03918089691549535</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-7.670186996459961</v>
+        <v>-3.300580024719238</v>
       </c>
       <c r="D13" t="n">
-        <v>2.646533727645874</v>
+        <v>8.124805450439453</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.358609437942505</v>
+        <v>-0.1510338187217712</v>
       </c>
       <c r="F13" t="n">
-        <v>1.211272468566887</v>
+        <v>0.01087340153753754</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4785640525817794</v>
+        <v>0.01499674115329971</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.630715656280514</v>
+        <v>-0.01282817013561728</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6.754570007324219</v>
+        <v>-2.94456958770752</v>
       </c>
       <c r="D14" t="n">
-        <v>5.042309761047363</v>
+        <v>8.213338851928711</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.384928703308105</v>
+        <v>-0.0691232085227966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08948565244675255</v>
+        <v>0.02458121769130225</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.522057590484637</v>
+        <v>0.01081842321902504</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.111322727203364</v>
+        <v>-0.04899139240384098</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-7.390841484069824</v>
+        <v>-3.094478130340576</v>
       </c>
       <c r="D15" t="n">
-        <v>6.343035697937012</v>
+        <v>8.185011863708496</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.130713939666748</v>
+        <v>-0.1414701342582702</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5279402807354899</v>
+        <v>0.01802052438259117</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.442680406570422</v>
+        <v>0.00392786357551804</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08100073337555302</v>
+        <v>-0.03619987547397605</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.7764301300048828</v>
+        <v>-3.334782123565674</v>
       </c>
       <c r="D16" t="n">
-        <v>4.676393508911133</v>
+        <v>8.0909423828125</v>
       </c>
       <c r="E16" t="n">
-        <v>5.587088108062744</v>
+        <v>-0.0672928094863891</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.09629679918289313</v>
+        <v>0.01199739351868624</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4833410131931261</v>
+        <v>-0.0002138027921320222</v>
       </c>
       <c r="H16" t="n">
-        <v>0.534000061750409</v>
+        <v>0.03830125063657756</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2559165954589844</v>
+        <v>-3.368669509887696</v>
       </c>
       <c r="D17" t="n">
-        <v>4.696257591247559</v>
+        <v>8.071453094482422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5933610200881958</v>
+        <v>0.1171565353870391</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2217929553985592</v>
+        <v>0.01877188928425304</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1976026952266694</v>
+        <v>-0.01797165483236304</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.07598552823066797</v>
+        <v>0.03120299618691198</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15.17343902587891</v>
+        <v>-3.412579536437988</v>
       </c>
       <c r="D18" t="n">
-        <v>6.087247848510742</v>
+        <v>8.035589218139648</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7045816779136658</v>
+        <v>0.0592367351055145</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01921781659126266</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1601200026273725</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3930673503875731</v>
+        <v>-0.0042760567739605</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.419233322143555</v>
+        <v>-3.019937038421631</v>
       </c>
       <c r="D19" t="n">
-        <v>7.200580596923828</v>
+        <v>8.054733276367188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1463413685560226</v>
+        <v>-0.1420263051986694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1233581319451331</v>
+        <v>0.01026864476501944</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0740124344825745</v>
+        <v>0.01618792921304707</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1553430366516109</v>
+        <v>0.006133087240159481</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.139339923858643</v>
+        <v>-3.012916564941406</v>
       </c>
       <c r="D20" t="n">
-        <v>7.70880126953125</v>
+        <v>8.089370727539062</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3070659637451172</v>
+        <v>-0.1633265316486358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02880229651927913</v>
+        <v>0.03629761248826986</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08823948577046314</v>
+        <v>0.01907121278345579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1134376771748063</v>
+        <v>0.05546045627444995</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.675087451934815</v>
+        <v>-3.395848751068115</v>
       </c>
       <c r="D21" t="n">
-        <v>7.276998043060303</v>
+        <v>8.023316383361816</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0094249583780765</v>
+        <v>0.0382503271102905</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04516126751899735</v>
+        <v>0.05165476366877556</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04690834142267682</v>
+        <v>-0.0003787364251911958</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04470311729237415</v>
+        <v>0.03377473920583711</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.384797096252441</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.934267520904541</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.07479587197303771</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02702467799186697</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.02729956846684218</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.006963863894343374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.632324695587158</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.965863227844238</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0220168232917785</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02345722466707222</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.01078177168965329</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.01979203335940831</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.280028343200684</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.839587211608887</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0374422371387481</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02312735825777049</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.06875288158655167</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.001032362207770397</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.331558704376221</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.833842277526855</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.1311583817005157</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1697350136935719</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2189157873392111</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.04578435219824339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.715910911560059</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.601772308349609</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.8390151262283325</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2920058012008669</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2727635514736176</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.126033713221551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.635088920593262</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.303267478942871</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.838643550872803</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2655186891555784</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2190562760829923</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6186354464292545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.690509796142578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.705544471740723</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.344899177551269</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2926044583320622</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.3912286460399645</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.472412636876103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.218070983886719</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.676623344421387</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.678865909576416</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.02654820919036799</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1870408368110673</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.7209736722707767</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.941818714141846</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.218802928924561</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.337108850479126</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.565036740303041</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.7936239337921156</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.525304698944093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.670186996459961</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.646533727645874</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.358609437942505</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.211272468566887</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.4785640525817794</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.630715656280514</v>
       </c>
     </row>
   </sheetData>
